--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2311296.644834186</v>
+        <v>2449324.61877307</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5058541.42860527</v>
+        <v>5325409.271248442</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>298.6680693675557</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>315.4168477860176</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>237.1596292560274</v>
+        <v>259.2313869497984</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559665</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>428.9253325316324</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>185.8339593077491</v>
       </c>
       <c r="C7" t="n">
-        <v>91.19213562911371</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,22 +1138,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>322.2568246624401</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>331.3084622450231</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>109.4660274534519</v>
+        <v>107.3792913045958</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>284.4152801142301</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>7.26460296736268</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>109.4731500843522</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948847</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T14" t="n">
-        <v>118.2788841874147</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>227.4516934177034</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>107.8580766794776</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1904,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>171.7931177684295</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>229.1468391339981</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2081,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>23.92593778768322</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.1197855393588</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>231.6481586625751</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>162.9119051916203</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>184.6723321165224</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>35.5167825707945</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.3894349117778</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193457</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.34780583513875</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695676</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>386.9143898638524</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>135.6786012922742</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4028,19 +4030,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>125.3775296109732</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>10.04027365719989</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>260.4356504767666</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>947.2202128354713</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>518.6385385727397</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.077691008219</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>763.4960167454872</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>335.6285871546949</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4367,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>973.7250989399176</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>969.4793792799751</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>770.7035002010737</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>598.1417886842986</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4489,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>271.0586252774393</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.509060631519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1019.953879564825</v>
+        <v>1435.33354427254</v>
       </c>
       <c r="X4" t="n">
-        <v>774.5621248982375</v>
+        <v>1189.941789605953</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>962.5221189200608</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1267.076121319351</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>828.9336485027741</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>797.0642677176227</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>363.8063560695091</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>649.3169773395186</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1273.417761384298</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1897.518545429078</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2116.76387488489</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1697.621411464201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1289.335287763854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>374.9907115556895</v>
       </c>
       <c r="K6" t="n">
-        <v>358.5019935678207</v>
+        <v>999.0914956004692</v>
       </c>
       <c r="L6" t="n">
-        <v>358.5019935678207</v>
+        <v>999.0914956004692</v>
       </c>
       <c r="M6" t="n">
-        <v>358.5019935678207</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="N6" t="n">
-        <v>358.5019935678207</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1032.553386008951</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1641.225609687538</v>
+        <v>2353.426554609525</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1544.621287895078</v>
       </c>
       <c r="X7" t="n">
-        <v>1451.79167541383</v>
+        <v>1544.621287895078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1224.372004727938</v>
+        <v>1317.201617209186</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230547</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678149</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>359.4556127050832</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1294.424097892871</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>886.137974192525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.2128461748023</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>439.2128461748023</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>439.2128461748023</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1013.629614209975</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>741.6032097962661</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>741.6032097962661</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.0314648937895</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.757366121884</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1514.614893305307</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.326731573762</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>793.5519867320568</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.6845571412646</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>910.4879051697988</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>910.4879051697988</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>910.4879051697988</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162086</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L12" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M12" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N12" t="n">
-        <v>76.13761321162086</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O12" t="n">
-        <v>919.6542082112317</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.37737469043</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2136293346052</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6519178178302</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>425.7739250193529</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2586.923689399807</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2341.044242978262</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2062.611242231368</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>1775.655734101798</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.843673406072</v>
+        <v>1503.62932968809</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.451918739484</v>
+        <v>1258.237575021502</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0322480535924</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2074.492601628978</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.350128812401</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1200.440343986846</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>766.6655991451407</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2287.945556116525</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O14" t="n">
-        <v>3230.148519610333</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P14" t="n">
-        <v>3230.148519610333</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>3776.647305568928</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3687.407040189715</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3687.407040189715</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3324.790090123542</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2919.934635534575</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2500.792172113885</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2500.792172113885</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>900.6578317997004</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C16" t="n">
-        <v>728.0961202829253</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829253</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336625</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878945</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176942</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755397</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.82558594935</v>
+        <v>2062.632628484989</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.87007781978</v>
+        <v>1775.67712035542</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.843673406072</v>
+        <v>1503.650715941711</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.896121204579</v>
+        <v>1258.258961275124</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.476450518687</v>
+        <v>1030.839290589232</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4584.153287715592</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.560997133398</v>
+        <v>949.5782250957595</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>777.0165135789845</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>611.1385207805072</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312444</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5692,31 +5694,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878944</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878944</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457399</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710504</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580934</v>
       </c>
       <c r="W19" t="n">
-        <v>1676.191041204865</v>
+        <v>1614.208269167226</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.799286538277</v>
+        <v>1368.816514500639</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.379615852385</v>
+        <v>1141.396843814747</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,49 +5752,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5835,22 +5837,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N23" t="n">
-        <v>3417.209496257023</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6069,13 +6071,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
         <v>1107.588885023173</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>843.1660143917137</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>843.1660143917137</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2345.210971753353</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2066.777971006458</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V25" t="n">
-        <v>1779.822462876888</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W25" t="n">
-        <v>1507.79605846318</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X25" t="n">
-        <v>1262.404303796593</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1034.984633110701</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6236,13 +6238,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>1737.537409152261</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.6588228237728</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>699.0971113069977</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>533.2191185085204</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2373.703780185412</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2095.270779438517</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1808.315271308948</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1536.288866895239</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1290.897112228652</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.47744154276</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.8255515988633</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>703.2638400820882</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>537.3858472836109</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6278435343481</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.45559567033</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1295.063841003742</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1067.64417031785</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6947,19 +6949,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1090.187678435286</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2026.844126920461</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1754.817722506753</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1509.425967840165</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1282.006297154273</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,34 +7174,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>303.55696962388</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>303.55696962388</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>137.9656946497076</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1585.355644760026</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.533028735933</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2287.945556116525</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2287.945556116525</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3230.148519610334</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.726595827987</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.16155963792</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954936</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3243.939256954936</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2839.08380236597</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2419.941338945281</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2011.655215244934</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>2543.356182930171</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>2448.265894076724</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>2354.145479403678</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>2270.761641019839</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>2185.376551286023</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>2143.640899102236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>2169.704572262694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>2494.262897228906</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>3148.968943854629</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L42" t="n">
-        <v>3148.968943854629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M42" t="n">
-        <v>3148.968943854629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N42" t="n">
-        <v>3148.968943854629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O42" t="n">
-        <v>3148.968943854629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P42" t="n">
-        <v>3148.968943854629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q42" t="n">
-        <v>3689.707882486704</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>3806.880660581044</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>3743.425223029427</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>3613.246579360029</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>3436.910032359997</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>3237.792514421997</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>3052.469760155191</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>2897.602324394071</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>2771.116545173292</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>893.9741130814026</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>893.9741130814026</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829253</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336625</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1313.212402486281</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1085.79273180039</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162089</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>1018.340576705429</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1018.340576705429</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>1489.869036295245</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2432.071999789053</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3260.38187462245</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581044</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3337.362514777884</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3337.362514777884</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3337.362514777884</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2012863720785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2012863720785</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1044.404249865887</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>764.2136293346052</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>598.3356365361279</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>428.5776327868652</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>251.8705787486214</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>86.27930377444906</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>86.27930377444906</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,13 +8139,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>239.5100572483141</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>604.933930050547</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>175.5976907431732</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581943</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>414.370774113524</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8930,25 +8932,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>30.53874243648033</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>534.2310361852415</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9483,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N23" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9884,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>46.07100690393293</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>695.4268903509978</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10668,19 +10670,19 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>411.6950264824786</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>476.2913733230459</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>37.43576575568454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>147.1354068630698</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444074</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.17580493063112</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>99.58767066827701</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>48.19697732172236</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>135.0797604404441</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.146865729431795</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.15930123557328</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>52.30086641797044</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>44.00051207685064</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>80.50874676570893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>84.63380825304901</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5691704774793</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.446659489829557</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>65.48800580459465</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313905</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>46.84665822455855</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>107.2592358276475</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>233.6132509545385</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.73307607587152</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.65030257150727</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>454585.8321002893</v>
+        <v>458813.2729080478</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>454585.8321002893</v>
+        <v>459574.4329233563</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373169.7387225666</v>
+        <v>461535.2532727358</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373169.7387225666</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>461535.2532727358</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>461535.2532727358</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373169.7387225667</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373169.7387225666</v>
+        <v>461535.2532727358</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="H2" t="n">
+        <v>487343.2653270509</v>
+      </c>
+      <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>487343.2653270506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="K2" t="n">
         <v>487343.2653270508</v>
@@ -26344,16 +26346,16 @@
         <v>487343.2653270508</v>
       </c>
       <c r="M2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="P2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="O2" t="n">
-        <v>394036.5501892231</v>
-      </c>
-      <c r="P2" t="n">
-        <v>394036.550189223</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501643</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998252</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877272</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622112</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955545</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="F4" t="n">
-        <v>22383.68653473858</v>
+        <v>27684.07875020255</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020255</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020273</v>
       </c>
       <c r="O4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="P4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020273</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>112887.7956412333</v>
       </c>
       <c r="C6" t="n">
-        <v>255079.0963009432</v>
+        <v>218902.9914000542</v>
       </c>
       <c r="D6" t="n">
-        <v>255079.0963009432</v>
+        <v>279438.8505548676</v>
       </c>
       <c r="E6" t="n">
-        <v>156310.9826915486</v>
+        <v>199585.8387500058</v>
       </c>
       <c r="F6" t="n">
-        <v>313788.2776136525</v>
+        <v>381940.9479710555</v>
       </c>
       <c r="G6" t="n">
-        <v>292441.1393646866</v>
+        <v>381940.9479710556</v>
       </c>
       <c r="H6" t="n">
-        <v>381940.9479710555</v>
+        <v>381940.9479710557</v>
       </c>
       <c r="I6" t="n">
         <v>381940.9479710555</v>
@@ -26546,22 +26548,22 @@
         <v>270926.4826260653</v>
       </c>
       <c r="K6" t="n">
+        <v>328895.0933322828</v>
+      </c>
+      <c r="L6" t="n">
+        <v>372548.6462444335</v>
+      </c>
+      <c r="M6" t="n">
+        <v>229740.7770330678</v>
+      </c>
+      <c r="N6" t="n">
+        <v>381940.9479710555</v>
+      </c>
+      <c r="O6" t="n">
+        <v>381940.9479710555</v>
+      </c>
+      <c r="P6" t="n">
         <v>381940.9479710556</v>
-      </c>
-      <c r="L6" t="n">
-        <v>381940.9479710556</v>
-      </c>
-      <c r="M6" t="n">
-        <v>250504.7008136361</v>
-      </c>
-      <c r="N6" t="n">
-        <v>381940.9479710556</v>
-      </c>
-      <c r="O6" t="n">
-        <v>313788.2776136526</v>
-      </c>
-      <c r="P6" t="n">
-        <v>313788.2776136526</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.1103742393926</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393926</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.10897484836</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393926</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>98.71578369541305</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>99.53419100046477</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>32.14651111354399</v>
+        <v>10.074753419773</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324444</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0.5116648616553334</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.06647322404811</v>
       </c>
       <c r="C7" t="n">
-        <v>79.6439587724936</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>101.3319306324442</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>69.49843779805389</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.6794465255809</v>
+        <v>117.766182674437</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>239.5100572483141</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -34875,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>604.933930050547</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684643</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>175.5976907431732</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>291.5292041581943</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>414.370774113524</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>30.53874243648033</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>534.2310361852415</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36060,7 +36062,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821462</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N23" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36604,16 +36606,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>46.07100690393293</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>695.4268903509978</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37388,19 +37390,19 @@
         <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>411.6950264824786</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>476.2913733230459</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>37.43576575568454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2449324.61877307</v>
+        <v>2448799.436404038</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916864</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>332.4291174559665</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>315.4168477860176</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>259.2313869497984</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>99.82394175029962</v>
       </c>
       <c r="E5" t="n">
-        <v>428.9253325316324</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8339593077491</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>134.770271871213</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1195,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>331.3084622450231</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.3792913045958</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.4731500843522</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>227.4516934177034</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>171.7931177684295</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>23.92593778768322</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>231.6481586625751</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>73.01514676193457</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3474,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>35.34780583513875</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695676</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561524</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>121.9901272476388</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>260.4356504767666</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.2202128354713</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>518.6385385727397</v>
+        <v>822.1393557439874</v>
       </c>
       <c r="D2" t="n">
-        <v>486.7691577875882</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>973.7250989399176</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>969.4793792799751</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.7035002010737</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C4" t="n">
-        <v>598.1417886842986</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2637958858213</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,49 +4491,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>271.0586252774393</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>689.2685070454004</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1435.33354427254</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1189.941789605953</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>962.5221189200608</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.076121319351</v>
+        <v>642.9684901519848</v>
       </c>
       <c r="C5" t="n">
-        <v>828.9336485027741</v>
+        <v>204.8260173354082</v>
       </c>
       <c r="D5" t="n">
-        <v>797.0642677176227</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>363.8063560695091</v>
+        <v>74.25941213986535</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233714</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K5" t="n">
-        <v>649.3169773395186</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="L5" t="n">
-        <v>1273.417761384298</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="M5" t="n">
-        <v>1897.518545429078</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="N5" t="n">
-        <v>2521.619329473857</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="O5" t="n">
-        <v>2521.619329473857</v>
+        <v>1922.734738723816</v>
       </c>
       <c r="P5" t="n">
         <v>2521.619329473857</v>
@@ -4597,22 +4597,22 @@
         <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473857</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473857</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473857</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.76387488489</v>
+        <v>1896.696647757929</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.621411464201</v>
+        <v>1477.554184337239</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.335287763854</v>
+        <v>1069.268060636893</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947715</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>374.9907115556895</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>999.0914956004692</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="L6" t="n">
-        <v>999.0914956004692</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.933209436211</v>
+        <v>431.6596472970912</v>
       </c>
       <c r="N6" t="n">
-        <v>1172.933209436211</v>
+        <v>431.6596472970912</v>
       </c>
       <c r="O6" t="n">
-        <v>1172.933209436211</v>
+        <v>431.6596472970912</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>735.337148692236</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>562.775437175461</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>396.8974443769837</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>227.1394406277209</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947715</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606128</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285738</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.143393267131</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2064.812642492913</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609525</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473857</v>
@@ -4752,25 +4752,25 @@
         <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477226</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
         <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308786</v>
+        <v>1958.949105306981</v>
       </c>
       <c r="V7" t="n">
-        <v>1816.647692308786</v>
+        <v>1671.993597177411</v>
       </c>
       <c r="W7" t="n">
-        <v>1544.621287895078</v>
+        <v>1399.967192763703</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.621287895078</v>
+        <v>1154.575438097115</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.201617209186</v>
+        <v>927.1557674112232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.8788077480212</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>829.7767389718487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1713.566561313561</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1294.424097892871</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>886.137974192525</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4986,25 +4986,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1432.7419264702</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
         <v>1324.277995859497</v>
@@ -5032,58 +5032,58 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136697</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.9992856166232</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2586.923689399807</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2341.044242978262</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2062.611242231368</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1775.655734101798</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1503.62932968809</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.237575021502</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.81790433561</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5290,37 +5290,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1116.062450089081</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>839.0206718702449</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5457,31 +5457,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173573</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878945</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176942</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755397</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2062.632628484989</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1775.67712035542</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1503.650715941711</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1258.258961275124</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.839290589232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957595</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789845</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>611.1385207805072</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>441.3805170312444</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5694,31 +5694,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173572</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878944</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878944</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457399</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710504</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580934</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167226</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500639</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814747</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5761,19 +5761,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.052964698928</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.097456569358</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>525.945884713274</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>949.5782250957668</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C37" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>611.1385207805145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>441.3805170312517</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6734629930079</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>264.6734629930079</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7122,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.19296617162</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731427</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.55696962388</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>303.55696962388</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>137.9656946497076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7423,40 +7423,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,37 +7651,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7809,49 +7809,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066088</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745698</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755407</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8139,13 +8139,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>604.933930050547</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>630.4048323684642</v>
       </c>
-      <c r="N5" t="n">
-        <v>630.4048323684642</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>175.5976907431732</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>291.5292041581943</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>534.2310361852415</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.07100690393293</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>48.17580493063112</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>48.19697732172236</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.146865729431795</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>44.00051207685064</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>65.48800580459465</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1553467313905</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.155346731394</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.65030257150727</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461535.2532727358</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>461535.2532727356</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461535.2532727356</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>461535.2532727356</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461535.2532727356</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>461535.2532727356</v>
+        <v>461535.2532727358</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>461535.2532727357</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461535.2532727358</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
         <v>487343.2653270506</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="K2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="L2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="M2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270506</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="L2" t="n">
-        <v>487343.2653270508</v>
-      </c>
-      <c r="M2" t="n">
-        <v>487343.2653270506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="O2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="P2" t="n">
         <v>487343.2653270508</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501643</v>
+        <v>66587.7678950164</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998252</v>
+        <v>11527.59554998255</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877272</v>
+        <v>53045.8546387727</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622112</v>
+        <v>9392.301726622134</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955545</v>
+        <v>138489.2977955546</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020255</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020255</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26453,13 +26453,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020273</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020272</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020273</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>112887.7956412333</v>
       </c>
       <c r="C6" t="n">
-        <v>218902.9914000542</v>
+        <v>218902.991400054</v>
       </c>
       <c r="D6" t="n">
         <v>279438.8505548676</v>
       </c>
       <c r="E6" t="n">
-        <v>199585.8387500058</v>
+        <v>199562.6144106232</v>
       </c>
       <c r="F6" t="n">
-        <v>381940.9479710555</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="G6" t="n">
-        <v>381940.9479710556</v>
+        <v>381917.7236316727</v>
       </c>
       <c r="H6" t="n">
-        <v>381940.9479710557</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="I6" t="n">
-        <v>381940.9479710555</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="J6" t="n">
-        <v>270926.4826260653</v>
+        <v>270903.2582866827</v>
       </c>
       <c r="K6" t="n">
-        <v>328895.0933322828</v>
+        <v>328871.8689929002</v>
       </c>
       <c r="L6" t="n">
-        <v>372548.6462444335</v>
+        <v>372525.4219050507</v>
       </c>
       <c r="M6" t="n">
-        <v>229740.7770330678</v>
+        <v>229717.5526936853</v>
       </c>
       <c r="N6" t="n">
-        <v>381940.9479710555</v>
+        <v>381917.7236316728</v>
       </c>
       <c r="O6" t="n">
-        <v>381940.9479710555</v>
+        <v>381917.723631673</v>
       </c>
       <c r="P6" t="n">
-        <v>381940.9479710556</v>
+        <v>381917.7236316729</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1103742393926</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393926</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.10897484836</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393926</v>
+        <v>37.11037423939268</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>99.12156952133336</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>99.53419100046477</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>22.58447096502732</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10.074753419773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331.7267452270003</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5116648616553334</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.06647322404811</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>140.8783988682127</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>69.49843779805389</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>239.5100572483141</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -34877,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>604.933930050547</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684643</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>630.4048323684642</v>
       </c>
-      <c r="N5" t="n">
-        <v>630.4048323684642</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>175.5976907431732</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>291.5292041581943</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35658,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>13.84524407969548</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35825,7 +35825,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821475</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>534.2310361852415</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36062,7 +36062,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>427.964691356055</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>-4.768840512258373e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.07100690393293</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924961003</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
